--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/CdAcCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB197B1D-B010-452B-92A8-D0C09194DE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23702D25-196D-4452-A016-8F3D3C8D1478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -119,21 +119,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>0－非銷帳科目
-1－會計銷帳科目(銷帳編號由系統自編,ex:應收利息)
-2－業務銷帳科目(銷帳編號由業務自編,ex:暫付及待結轉帳項－火險保費)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0－不檢查
-1－不過餘額(借貸分由放款及核心系統出帳)
-2－應&gt;=0
-3－應=0
-4－應&lt;=0
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ReceivableFlag</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -218,115 +203,134 @@
     <t>科子目級別</t>
   </si>
   <si>
+    <t>帳冊別記號</t>
+  </si>
+  <si>
+    <t>借貸別</t>
+  </si>
+  <si>
+    <t>D:借(1,5,6,9)
+C:貸(2,3,4,8)</t>
+  </si>
+  <si>
+    <t>業務科目記號</t>
+  </si>
+  <si>
+    <t>銷帳科目記號</t>
+  </si>
+  <si>
+    <t>ClsChkFlag</t>
+  </si>
+  <si>
+    <t>放款部使用記號</t>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcSubCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCode,AcSubCode,AcDtlCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcctCode = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acCodeAcctFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDtlCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAcCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND AcSubCode &gt;= ,AND AcSubCode &lt;= ,AND AcDtlCode &gt;= ,AND AcDtlCode &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCode asc,AcSubCode asc,AcDtlCode asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcctItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCodeOld</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>舊科目代號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAcCodeOld</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcNoCodeOld &gt;= ,AND AcNoCodeOld &lt;= ,AND AcSubCode &gt;= ,AND AcSubCode &lt;= ,AND AcDtlCode &gt;= ,AND AcDtlCode &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCodeOld asc,AcSubCode asc,AcDtlCode asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>0:可入帳科目
 1:下編子細目</t>
-  </si>
-  <si>
-    <t>帳冊別記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0:不細分
 1:細分
 2:中介</t>
-  </si>
-  <si>
-    <t>借貸別</t>
-  </si>
-  <si>
-    <t>D:借(1,5,6,9)
-C:貸(2,3,4,8)</t>
-  </si>
-  <si>
-    <t>業務科目記號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0:非業務科目（可經由[其他傳票輸入]交易入帳）
 1:資負明細科目（放款、催收款項...等，不可經由[其他傳票輸入]交易入帳)
 ※資負明細科目
-1.列入[資負明細月報]項目
-2.可由[未銷帳餘額明細]查詢未銷明細
-3.列入[資負明細每日餘額檔(含所屬會科、帳冊別及利率)](資負明細業務科目)
-4.列入[會計餘額檢核表(會計檔餘額、銷帳檔餘額、業務檔餘額)]項目</t>
-  </si>
-  <si>
-    <t>銷帳科目記號</t>
-  </si>
-  <si>
-    <t>ClsChkFlag</t>
-  </si>
-  <si>
-    <t>放款部使用記號</t>
+1:列入[資負明細月報]項目
+2:可由[未銷帳餘額明細]查詢未銷明細
+3:列入[資負明細每日餘額檔(含所屬會科、帳冊別及利率)](資負明細業務科目)
+4:列入[會計餘額檢核表(會計檔餘額、銷帳檔餘額、業務檔餘額)]項目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:非銷帳科目
+1:會計銷帳科目(銷帳編號由系統自編,ex:應收利息)
+2:業務銷帳科目(銷帳編號由業務自編,ex:暫付及待結轉帳項－火險保費)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0:不檢查
+1:不過餘額(借貸分由放款及核心系統出帳)
+2:應&gt;=0
+3:應=0
+4:應&lt;=0
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0:可以使用
 1:不可使用</t>
-  </si>
-  <si>
-    <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcNoCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcSubCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcNoCode,AcSubCode,AcDtlCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcctCode = </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>acCodeAcctFirst</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcDtlCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findAcCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AcNoCode &gt;= ,AND AcNoCode &lt;= ,AND AcSubCode &gt;= ,AND AcSubCode &lt;= ,AND AcDtlCode &gt;= ,AND AcDtlCode &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcNoCode asc,AcSubCode asc,AcDtlCode asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcctItem</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcNoCodeOld</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>舊科目代號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>findAcCodeOld</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">AcNoCodeOld &gt;= ,AND AcNoCodeOld &lt;= ,AND AcSubCode &gt;= ,AND AcSubCode &lt;= ,AND AcDtlCode &gt;= ,AND AcDtlCode &lt;= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AcNoCodeOld asc,AcSubCode asc,AcDtlCode asc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -989,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1013,7 +1017,7 @@
         <v>24</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1023,7 +1027,7 @@
       <c r="A2" s="36"/>
       <c r="B2" s="37"/>
       <c r="C2" s="13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -1038,7 +1042,7 @@
       </c>
       <c r="B3" s="39"/>
       <c r="C3" s="17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>12</v>
@@ -1064,7 +1068,7 @@
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="15"/>
@@ -1121,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D9" s="32" t="s">
         <v>11</v>
@@ -1140,13 +1144,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="21">
         <v>5</v>
@@ -1159,10 +1163,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>15</v>
@@ -1178,13 +1182,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>49</v>
       </c>
       <c r="E12" s="5">
         <v>40</v>
@@ -1197,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D13" s="29" t="s">
         <v>15</v>
@@ -1216,13 +1220,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E14" s="5">
         <v>20</v>
@@ -1235,10 +1239,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>17</v>
@@ -1248,7 +1252,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="6" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6">
@@ -1256,10 +1260,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>17</v>
@@ -1269,7 +1273,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="6" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32.4">
@@ -1280,7 +1284,7 @@
         <v>25</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>15</v>
@@ -1290,7 +1294,7 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="36.450000000000003" customHeight="1">
@@ -1301,7 +1305,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>14</v>
@@ -1311,7 +1315,7 @@
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1">
@@ -1319,10 +1323,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>14</v>
@@ -1332,7 +1336,7 @@
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="36" customHeight="1">
@@ -1340,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>13</v>
@@ -1353,7 +1357,7 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="7" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="25.05" customHeight="1">
@@ -1361,10 +1365,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>14</v>
@@ -1374,7 +1378,7 @@
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1382,10 +1386,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>11</v>
@@ -1401,13 +1405,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="28" t="s">
         <v>34</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>36</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="9"/>
@@ -1418,13 +1422,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>37</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>39</v>
       </c>
       <c r="E24" s="28">
         <v>6</v>
@@ -1437,13 +1441,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="28"/>
     </row>
@@ -1452,13 +1456,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="28">
         <v>6</v>
@@ -1484,7 +1488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -1510,32 +1514,32 @@
     </row>
     <row r="2" spans="1:3" ht="23.4" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
